--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H2">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.201683333333333</v>
+        <v>4.441418</v>
       </c>
       <c r="N2">
-        <v>9.60505</v>
+        <v>13.324254</v>
       </c>
       <c r="O2">
-        <v>0.5163673346595562</v>
+        <v>0.5990512116078841</v>
       </c>
       <c r="P2">
-        <v>0.5163673346595563</v>
+        <v>0.5990512116078841</v>
       </c>
       <c r="Q2">
-        <v>7.325933853622221</v>
+        <v>0.5707725490706667</v>
       </c>
       <c r="R2">
-        <v>65.9334046826</v>
+        <v>5.136952941635999</v>
       </c>
       <c r="S2">
-        <v>0.204699322069536</v>
+        <v>0.02245963544018247</v>
       </c>
       <c r="T2">
-        <v>0.2046993220695361</v>
+        <v>0.02245963544018247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H3">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9983063333333333</v>
+        <v>0.9983063333333334</v>
       </c>
       <c r="N3">
         <v>2.994919</v>
       </c>
       <c r="O3">
-        <v>0.1610067976274213</v>
+        <v>0.1346499290404906</v>
       </c>
       <c r="P3">
-        <v>0.1610067976274213</v>
+        <v>0.1346499290404906</v>
       </c>
       <c r="Q3">
-        <v>2.284275302154222</v>
+        <v>0.1282936779717778</v>
       </c>
       <c r="R3">
-        <v>20.558477719388</v>
+        <v>1.154643101746</v>
       </c>
       <c r="S3">
-        <v>0.06382662130370718</v>
+        <v>0.005048296806175852</v>
       </c>
       <c r="T3">
-        <v>0.0638266213037072</v>
+        <v>0.005048296806175853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H4">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4375843333333334</v>
+        <v>0.643907</v>
       </c>
       <c r="N4">
-        <v>1.312753</v>
+        <v>1.931721</v>
       </c>
       <c r="O4">
-        <v>0.07057358032246958</v>
+        <v>0.08684912532727113</v>
       </c>
       <c r="P4">
-        <v>0.07057358032246959</v>
+        <v>0.08684912532727113</v>
       </c>
       <c r="Q4">
-        <v>1.001258884039555</v>
+        <v>0.08274934711266667</v>
       </c>
       <c r="R4">
-        <v>9.011329956355999</v>
+        <v>0.744744124014</v>
       </c>
       <c r="S4">
-        <v>0.02797691309725088</v>
+        <v>0.003256148481719481</v>
       </c>
       <c r="T4">
-        <v>0.02797691309725089</v>
+        <v>0.003256148481719481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H5">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.562824666666667</v>
+        <v>1.330456</v>
       </c>
       <c r="N5">
-        <v>4.688474</v>
+        <v>3.991368</v>
       </c>
       <c r="O5">
-        <v>0.2520522873905527</v>
+        <v>0.1794497340243542</v>
       </c>
       <c r="P5">
-        <v>0.2520522873905527</v>
+        <v>0.1794497340243542</v>
       </c>
       <c r="Q5">
-        <v>3.575978302916444</v>
+        <v>0.1709786745013334</v>
       </c>
       <c r="R5">
-        <v>32.183804726248</v>
+        <v>1.538808070512</v>
       </c>
       <c r="S5">
-        <v>0.09991904772392085</v>
+        <v>0.00672793164912724</v>
       </c>
       <c r="T5">
-        <v>0.09991904772392086</v>
+        <v>0.00672793164912724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J6">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.201683333333333</v>
+        <v>4.441418</v>
       </c>
       <c r="N6">
-        <v>9.60505</v>
+        <v>13.324254</v>
       </c>
       <c r="O6">
-        <v>0.5163673346595562</v>
+        <v>0.5990512116078841</v>
       </c>
       <c r="P6">
-        <v>0.5163673346595563</v>
+        <v>0.5990512116078841</v>
       </c>
       <c r="Q6">
-        <v>8.288818771566666</v>
+        <v>11.498360411692</v>
       </c>
       <c r="R6">
-        <v>74.59936894409999</v>
+        <v>103.485243705228</v>
       </c>
       <c r="S6">
-        <v>0.2316039998720463</v>
+        <v>0.4524551564838049</v>
       </c>
       <c r="T6">
-        <v>0.2316039998720464</v>
+        <v>0.452455156483805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J7">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9983063333333333</v>
+        <v>0.9983063333333334</v>
       </c>
       <c r="N7">
         <v>2.994919</v>
       </c>
       <c r="O7">
-        <v>0.1610067976274213</v>
+        <v>0.1346499290404906</v>
       </c>
       <c r="P7">
-        <v>0.1610067976274213</v>
+        <v>0.1346499290404906</v>
       </c>
       <c r="Q7">
-        <v>2.584509276528666</v>
+        <v>2.584509276528667</v>
       </c>
       <c r="R7">
         <v>23.260583488758</v>
       </c>
       <c r="S7">
-        <v>0.07221568026119481</v>
+        <v>0.1016992429595924</v>
       </c>
       <c r="T7">
-        <v>0.07221568026119481</v>
+        <v>0.1016992429595924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J8">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4375843333333334</v>
+        <v>0.643907</v>
       </c>
       <c r="N8">
-        <v>1.312753</v>
+        <v>1.931721</v>
       </c>
       <c r="O8">
-        <v>0.07057358032246958</v>
+        <v>0.08684912532727113</v>
       </c>
       <c r="P8">
-        <v>0.07057358032246959</v>
+        <v>0.08684912532727113</v>
       </c>
       <c r="Q8">
-        <v>1.132859455060667</v>
+        <v>1.667006968858</v>
       </c>
       <c r="R8">
-        <v>10.195735095546</v>
+        <v>15.003062719722</v>
       </c>
       <c r="S8">
-        <v>0.03165406173252908</v>
+        <v>0.06559595211394589</v>
       </c>
       <c r="T8">
-        <v>0.03165406173252909</v>
+        <v>0.06559595211394592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J9">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.562824666666667</v>
+        <v>1.330456</v>
       </c>
       <c r="N9">
-        <v>4.688474</v>
+        <v>3.991368</v>
       </c>
       <c r="O9">
-        <v>0.2520522873905527</v>
+        <v>0.1794497340243542</v>
       </c>
       <c r="P9">
-        <v>0.2520522873905527</v>
+        <v>0.1794497340243542</v>
       </c>
       <c r="Q9">
-        <v>4.045987402585333</v>
+        <v>3.444409555664</v>
       </c>
       <c r="R9">
-        <v>36.413886623268</v>
+        <v>30.999686000976</v>
       </c>
       <c r="S9">
-        <v>0.1130519186986109</v>
+        <v>0.1355359206620087</v>
       </c>
       <c r="T9">
-        <v>0.1130519186986109</v>
+        <v>0.1355359206620087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H10">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I10">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J10">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.201683333333333</v>
+        <v>4.441418</v>
       </c>
       <c r="N10">
-        <v>9.60505</v>
+        <v>13.324254</v>
       </c>
       <c r="O10">
-        <v>0.5163673346595562</v>
+        <v>0.5990512116078841</v>
       </c>
       <c r="P10">
-        <v>0.5163673346595563</v>
+        <v>0.5990512116078841</v>
       </c>
       <c r="Q10">
-        <v>1.865338062972222</v>
+        <v>3.07530444447</v>
       </c>
       <c r="R10">
-        <v>16.78804256675</v>
+        <v>27.67774000023</v>
       </c>
       <c r="S10">
-        <v>0.05212078685806347</v>
+        <v>0.1210118054956031</v>
       </c>
       <c r="T10">
-        <v>0.05212078685806349</v>
+        <v>0.1210118054956031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H11">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I11">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J11">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9983063333333333</v>
+        <v>0.9983063333333334</v>
       </c>
       <c r="N11">
         <v>2.994919</v>
       </c>
       <c r="O11">
-        <v>0.1610067976274213</v>
+        <v>0.1346499290404906</v>
       </c>
       <c r="P11">
-        <v>0.1610067976274213</v>
+        <v>0.1346499290404906</v>
       </c>
       <c r="Q11">
-        <v>0.5816249167072222</v>
+        <v>0.6912422797950001</v>
       </c>
       <c r="R11">
-        <v>5.234624250364999</v>
+        <v>6.221180518155001</v>
       </c>
       <c r="S11">
-        <v>0.01625161085638956</v>
+        <v>0.0272000635460031</v>
       </c>
       <c r="T11">
-        <v>0.01625161085638957</v>
+        <v>0.02720006354600311</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H12">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I12">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J12">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4375843333333334</v>
+        <v>0.643907</v>
       </c>
       <c r="N12">
-        <v>1.312753</v>
+        <v>1.931721</v>
       </c>
       <c r="O12">
-        <v>0.07057358032246958</v>
+        <v>0.08684912532727113</v>
       </c>
       <c r="P12">
-        <v>0.07057358032246959</v>
+        <v>0.08684912532727113</v>
       </c>
       <c r="Q12">
-        <v>0.2549417377505556</v>
+        <v>0.445850865405</v>
       </c>
       <c r="R12">
-        <v>2.294475639755</v>
+        <v>4.012657788645</v>
       </c>
       <c r="S12">
-        <v>0.007123515162365984</v>
+        <v>0.01754402504813942</v>
       </c>
       <c r="T12">
-        <v>0.007123515162365987</v>
+        <v>0.01754402504813942</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H13">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I13">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J13">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.562824666666667</v>
+        <v>1.330456</v>
       </c>
       <c r="N13">
-        <v>4.688474</v>
+        <v>3.991368</v>
       </c>
       <c r="O13">
-        <v>0.2520522873905527</v>
+        <v>0.1794497340243542</v>
       </c>
       <c r="P13">
-        <v>0.2520522873905527</v>
+        <v>0.1794497340243542</v>
       </c>
       <c r="Q13">
-        <v>0.9105198837544445</v>
+        <v>0.92122769124</v>
       </c>
       <c r="R13">
-        <v>8.19467895379</v>
+        <v>8.291049221160002</v>
       </c>
       <c r="S13">
-        <v>0.02544150775306452</v>
+        <v>0.03624988296360714</v>
       </c>
       <c r="T13">
-        <v>0.02544150775306452</v>
+        <v>0.03624988296360714</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H14">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I14">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J14">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.201683333333333</v>
+        <v>4.441418</v>
       </c>
       <c r="N14">
-        <v>9.60505</v>
+        <v>13.324254</v>
       </c>
       <c r="O14">
-        <v>0.5163673346595562</v>
+        <v>0.5990512116078841</v>
       </c>
       <c r="P14">
-        <v>0.5163673346595563</v>
+        <v>0.5990512116078841</v>
       </c>
       <c r="Q14">
-        <v>1.000053259761111</v>
+        <v>0.07940663194933333</v>
       </c>
       <c r="R14">
-        <v>9.000479337849999</v>
+        <v>0.714659687544</v>
       </c>
       <c r="S14">
-        <v>0.02794322585991033</v>
+        <v>0.003124614188293709</v>
       </c>
       <c r="T14">
-        <v>0.02794322585991035</v>
+        <v>0.00312461418829371</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H15">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I15">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J15">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9983063333333333</v>
+        <v>0.9983063333333334</v>
       </c>
       <c r="N15">
         <v>2.994919</v>
       </c>
       <c r="O15">
-        <v>0.1610067976274213</v>
+        <v>0.1346499290404906</v>
       </c>
       <c r="P15">
-        <v>0.1610067976274213</v>
+        <v>0.1346499290404906</v>
       </c>
       <c r="Q15">
-        <v>0.3118233125981111</v>
+        <v>0.01784838616488889</v>
       </c>
       <c r="R15">
-        <v>2.806409813383</v>
+        <v>0.160635475484</v>
       </c>
       <c r="S15">
-        <v>0.008712885206129775</v>
+        <v>0.000702325728719252</v>
       </c>
       <c r="T15">
-        <v>0.008712885206129777</v>
+        <v>0.0007023257287192521</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H16">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I16">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J16">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4375843333333334</v>
+        <v>0.643907</v>
       </c>
       <c r="N16">
-        <v>1.312753</v>
+        <v>1.931721</v>
       </c>
       <c r="O16">
-        <v>0.07057358032246958</v>
+        <v>0.08684912532727113</v>
       </c>
       <c r="P16">
-        <v>0.07057358032246959</v>
+        <v>0.08684912532727113</v>
       </c>
       <c r="Q16">
-        <v>0.1366804875467778</v>
+        <v>0.01151219861733333</v>
       </c>
       <c r="R16">
-        <v>1.230124387921</v>
+        <v>0.103609787556</v>
       </c>
       <c r="S16">
-        <v>0.003819090330323618</v>
+        <v>0.0004529996834663249</v>
       </c>
       <c r="T16">
-        <v>0.00381909033032362</v>
+        <v>0.0004529996834663249</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H17">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I17">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J17">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.562824666666667</v>
+        <v>1.330456</v>
       </c>
       <c r="N17">
-        <v>4.688474</v>
+        <v>3.991368</v>
       </c>
       <c r="O17">
-        <v>0.2520522873905527</v>
+        <v>0.1794497340243542</v>
       </c>
       <c r="P17">
-        <v>0.2520522873905527</v>
+        <v>0.1794497340243542</v>
       </c>
       <c r="Q17">
-        <v>0.4881519312242222</v>
+        <v>0.02378677933866667</v>
       </c>
       <c r="R17">
-        <v>4.393367381018</v>
+        <v>0.214081014048</v>
       </c>
       <c r="S17">
-        <v>0.01363981321495643</v>
+        <v>0.0009359987496111593</v>
       </c>
       <c r="T17">
-        <v>0.01363981321495643</v>
+        <v>0.0009359987496111593</v>
       </c>
     </row>
   </sheetData>
